--- a/Product_Backlog/Product_Backlog.xlsx
+++ b/Product_Backlog/Product_Backlog.xlsx
@@ -1,26 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/jsbeesla_dundee_ac_uk/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{10750613-2B12-418E-A65C-001B2ECB3A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AB2FAA-5F31-471F-B20B-9CDA6C820335}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="13005" yWindow="3345" windowWidth="38700" windowHeight="15345" xr2:uid="{E316B913-E407-4F43-9DFF-CC9694ED4CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>As a user I would like to be able to select a sustainable development goal so that I can find out more information about it</t>
+  </si>
+  <si>
+    <t>As a user I want to access the website from a desktop so that I have a means of accessing it</t>
+  </si>
+  <si>
+    <t>As a user I would like to be able to see the local relevant items to my development goal as a list so that I can make use of them</t>
+  </si>
+  <si>
+    <t>As an administrator I would like to edit existing items so that I can keep the page up to date</t>
+  </si>
+  <si>
+    <t>As an administrator I would like to add new items so that I can update page with new sustainable activities</t>
+  </si>
+  <si>
+    <t>As a user I want to view a list of the different global goals so that I can see what they are</t>
+  </si>
+  <si>
+    <t>As a user I would like to see the local relevant items to my development goal on a map so that it is easy to locate</t>
+  </si>
+  <si>
+    <t>As a user I would like to get information including contact details about specific events so that I could attend them and get in touch if required</t>
+  </si>
+  <si>
+    <t>As a user I would like to be able to view the main application on a mobile device so that I can view it anywhere</t>
+  </si>
+  <si>
+    <t>As a mobile user I would like to be able to see sustainable activities close to my current location so that they are easier to find</t>
+  </si>
+  <si>
+    <t>As an administator I would like the ability to add users that can add/edit/remove items so that we can share responsibility of application maintenance</t>
+  </si>
+  <si>
+    <t>As a mobile user I would like to be able to check into a place through social media so that I can update others on the progress of my sustainable goals</t>
+  </si>
+  <si>
+    <t>As a user I would like to create a personal list of items I am interested in so that I can print this out or save it to a list of places to visit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +99,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +176,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,7 +220,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +232,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +279,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +331,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +499,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDFF82C-87DE-4B72-AA5F-1D71E90422C9}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="135.140625" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15">
+        <f>SUM(C2:C14)</f>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+    <sortCondition descending="1" ref="B2:B14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100786EA816594F01499CFFC00C2C075B48" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4531d48bb182209442efa19cecda189c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8287c81-3df2-4323-80d5-6235b2ea6f07" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ad0db5e94dc36dde0b77b3efc52c815" ns2:_="">
+    <xsd:import namespace="d8287c81-3df2-4323-80d5-6235b2ea6f07"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8287c81-3df2-4323-80d5-6235b2ea6f07" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1702138-3F48-4D73-9E77-0B81CA4F8B4A}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C694EF2-6B18-4685-8A29-0672142C83BB}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1468BD9F-4FB3-4CBA-86F0-BF63DD44DBE9}"/>
 </file>